--- a/iSearch/db_data/output.xlsx
+++ b/iSearch/db_data/output.xlsx
@@ -1,527 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Govind\Official\Projects\MSF\iSearch\db_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325D16F3-B2C2-4DF4-AC18-26759D1DEFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-  </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-</styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>FileName</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>GUID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FileName Path</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FileName Version</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Created DateTime</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Updated DateTime</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Created By</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Updated By</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>RawOCR</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DocAve_Software_Brochure.pdf</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3a1d05c5-2d6c-46d6-8981-d70d17ba4458              </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/DocAve_Software_Brochure.pdf</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:52.000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:52.000</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UN A AvePoint* .
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>GUID</t>
+  </si>
+  <si>
+    <t>FileName Path</t>
+  </si>
+  <si>
+    <t>FileName Version</t>
+  </si>
+  <si>
+    <t>Created DateTime</t>
+  </si>
+  <si>
+    <t>Updated DateTime</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Updated By</t>
+  </si>
+  <si>
+    <t>RawOCR</t>
+  </si>
+  <si>
+    <t>DocAve_Software_Brochure.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3a1d05c5-2d6c-46d6-8981-d70d17ba4458              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/DocAve_Software_Brochure.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:52.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guru                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN A AvePoint* .
 AoW DocAve Brochure
 DocAve Software
 Migrate. Integrate. Manage. Optimize. Protect. Report.
@@ -685,51 +241,24 @@
 Accessible content available upon request.
 © AvePoint, Inc. All rights reserved. DocAve, AvePoint, and the AvePoint logo are trademarks of AvePoint, Inc. All other marks are trademarks of their respective owners.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Deployer User Guide.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">b90155f0-f06b-4a47-b811-536ca276fab9              </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Deployer User Guide.pdf</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Tzunami
+  </si>
+  <si>
+    <t>Deployer User Guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b90155f0-f06b-4a47-b811-536ca276fab9              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Deployer User Guide.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:53.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Govind                                                                                              </t>
+  </si>
+  <si>
+    <t>Tzunami
 Migration Masters
 Tzunami Deployer
 User Guide
@@ -1436,102 +965,42 @@
 The target SharePoint is not modified until the committing step. For more information about
 committing, see Committing the Migration on page 4-84.
 Yo</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Construction_2.pdf</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">566e050c-f49f-45c5-ba12-faaba4e3772d              </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Construction_2.pdf</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arun                                                                                                </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Construction is the process of constructing a building or infrastructure. Construction differs from
+  </si>
+  <si>
+    <t>Construction_2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">566e050c-f49f-45c5-ba12-faaba4e3772d              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Construction_2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arun                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction is the process of constructing a building or infrastructure. Construction differs from
 manufacturing in that manufacturing typically involves mass production of similar items without a
 designated purchaser, while construction typically takes place on location for a known client.
 Construction as an industry comprises six to nine percent of the gross domestic product of
 developed countries. Construction starts with planning,|[citation needed] design, and financing and
 continues until the project is built and ready for use.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>computation_1.pdf</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">65e4f005-9746-47e9-a318-d6fc73a79415              </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/computation_1.pdf</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karan                                                                                               </t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">computational complexity theory is a branch of the theory of computation in theoretical computer
+  </si>
+  <si>
+    <t>computation_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65e4f005-9746-47e9-a318-d6fc73a79415              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/computation_1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karan                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">computational complexity theory is a branch of the theory of computation in theoretical computer
 science that focuses on classifying computational problems according to their inherent difficulty,
 and relating those classes to each other. A computational problem is understood to be a task that is
 in principle amenable to being solved by a computer, which is equivalent to stating that the problem
@@ -1547,51 +1016,21 @@
 Find in Corporate cam |p
 Traverse to a Project Folder
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>community based child protection.pdf</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">f50ee95e-4377-465f-808d-d06d1fcdf7b8              </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/community based child protection.pdf</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:53.000</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pranav                                                                                              </t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arun                                                                                                </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">For situations that do not warrant immediate reporting to CPS, CPS may refer the
+  </si>
+  <si>
+    <t>community based child protection.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f50ee95e-4377-465f-808d-d06d1fcdf7b8              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/community based child protection.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For situations that do not warrant immediate reporting to CPS, CPS may refer the
 families to community
 based Child Protection Specialist Centres (CPSCs), for ongoing support. Examples inclu
 de cases in which there was inappropriate or excessive discipline, but caregivers were
@@ -1624,51 +1063,24 @@
 + Community agencies
 Diagram | Continuum of Child Protection Intervention and Communty Baved Service
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Claims-Based Identity for Windows.pdf</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8010c1f2-74d8-4a8c-8de2-c6bb5346809e              </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Claims-Based Identity for Windows.pdf</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rajesh                                                                                              </t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karan                                                                                               </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>‘3 DavidChappell
+  </si>
+  <si>
+    <t>Claims-Based Identity for Windows.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8010c1f2-74d8-4a8c-8de2-c6bb5346809e              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Claims-Based Identity for Windows.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:54.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajesh                                                                                              </t>
+  </si>
+  <si>
+    <t>‘3 DavidChappell
 &amp; Associates
 CLAIMS-BASED IDENTITY FOR
 WINDOWS
@@ -2091,51 +1503,21 @@
 extension that implements the OAuth 2.0 protocol with SWT tokens.
 Each claim is extracted into an instance of a WIF-defined Claim class, providing a consistent way for
 developers to</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Civildisobedience_4.pdf</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">73d401fd-1ea8-4c9a-8d29-2454734ce187              </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Civildisobedience_4.pdf</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bijjala                                                                                             </t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pranav                                                                                              </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">One of its earliest massive implementations was brought about by Egyptians against the British
+  </si>
+  <si>
+    <t>Civildisobedience_4.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73d401fd-1ea8-4c9a-8d29-2454734ce187              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Civildisobedience_4.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bijjala                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of its earliest massive implementations was brought about by Egyptians against the British
 occupation in the 1919 Revolution. Civil disobedience is one of the many ways people have
 rebelled against what they deem to be unfair laws. It has been used in many nonviolent resistance
 movements in India (Gandhi's campaigns for independence from the British Empire), in
@@ -2145,51 +1527,21 @@
 2003 Rose Revolution in Georgia and the 2004 Orange Revolution in Ukraine, among other various
 movements worldwide.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Child Protection CPS.pdf</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">4baeb893-4ccc-4acf-8c91-d2916117a114              </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Child Protection CPS.pdf</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amit                                                                                                </t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pranav                                                                                              </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Child protection concerns operate on a continuum, with corresponding responses from ei
+  </si>
+  <si>
+    <t>Child Protection CPS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4baeb893-4ccc-4acf-8c91-d2916117a114              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Child Protection CPS.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amit                                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child protection concerns operate on a continuum, with corresponding responses from ei
 ther the community, more specialised partners or the State. Generally, a more serious
 concern will necessitate higher levels and more intrusive interventions, with the Stat
 e stepping in when warranted. Child protection is everyone’s responsibility. The State
@@ -2206,51 +1558,18 @@
 System
 in Singapore
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Child Abuse.pdf</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5b44669f-1318-43a6-b1b0-7c29e11c658d              </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Child Abuse.pdf</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pranav                                                                                              </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The immediate objectives are to ascertain the safety of the CYP and work with the CYP
+  </si>
+  <si>
+    <t>Child Abuse.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5b44669f-1318-43a6-b1b0-7c29e11c658d              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Child Abuse.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The immediate objectives are to ascertain the safety of the CYP and work with the CYP
 and family to put in place a plan to address the safety concerns posed to the CYP. The
 CPO will also work with the CYP, family members, significant others and professionals
 in keeping the CYP safe. A care and protection plan is drawn up with the family. The
@@ -2263,51 +1582,18 @@
 ings, determine the risk of harm posed to the CYP, as well as endorse the goals and th
 e service plan for the CYP and family
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>the-sharepoint-mvp-guide-to-optimizing-storage-and-performance.pdf</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">93af8d54-beed-438c-8566-bcc2ccc84f0c              </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/the-sharepoint-mvp-guide-to-optimizing-storage-and-performance.pdf</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amit                                                                                                </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SHAREPOINT 2013 EDITION
+  </si>
+  <si>
+    <t>the-sharepoint-mvp-guide-to-optimizing-storage-and-performance.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93af8d54-beed-438c-8566-bcc2ccc84f0c              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/the-sharepoint-mvp-guide-to-optimizing-storage-and-performance.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHAREPOINT 2013 EDITION
 THE SHAREPOINT MVP GUIDE
 TO OPTIMIZING STORAGE AND
 PERFORMANCE
@@ -2583,51 +1869,18 @@
 5335 Wisconsin Ave NW, Suite 510, Washington DC 20015
 sales@metalogix.com | www.metalogix.com | 1.202.609.9100
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TeBS_NTU_PaCE_CRM_Upgrade_ExtReq_WebRegistration_Final_SignOff.pdf</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ad55a9db-dad6-4f7c-aafc-af4e09c4c5ab              </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_NTU_PaCE_CRM_Upgrade_ExtReq_WebRegistration_Final_SignOff.pdf</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:54.000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pranav                                                                                              </t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amit                                                                                                </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Business Requirements Specification Document
+  </si>
+  <si>
+    <t>TeBS_NTU_PaCE_CRM_Upgrade_ExtReq_WebRegistration_Final_SignOff.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ad55a9db-dad6-4f7c-aafc-af4e09c4c5ab              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_NTU_PaCE_CRM_Upgrade_ExtReq_WebRegistration_Final_SignOff.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Requirements Specification Document
 (Extended Requirements of
 Short Courses Course Registration)
 Microsoft Dynamics CRM 2016 — On-Premises
@@ -3086,51 +2339,21 @@
 | have read and agreed to the Terms and Conditions attached herein.
 NTU CoPACE — Extended Requirements (Short Courses Course Registration) v0.7 Page 13 of 13
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TeBS_2018_NTU_CoPaCE_CR0243_20181005_v0.2.pdf</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">48b3d01a-465a-492d-8a2d-92b7eaa3c463              </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_2018_NTU_CoPaCE_CR0243_20181005_v0.2.pdf</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karan                                                                                               </t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EES] NANYANG
+  </si>
+  <si>
+    <t>TeBS_2018_NTU_CoPaCE_CR0243_20181005_v0.2.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48b3d01a-465a-492d-8a2d-92b7eaa3c463              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_2018_NTU_CoPaCE_CR0243_20181005_v0.2.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:55.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EES] NANYANG
 TeBS TECHNOLOGICAL
 «OS UNIVERSITY
 solutions for utre needs &lt;2” SINGAPORE
@@ -3291,51 +2514,18 @@
 © Copy right and all rights reserved. No part of this document may be reproduced, stored, or transmitted in any form or by any means,
 without the prior permission of the company.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TeBS_2018_NTU_CoPaCE_CR0243_20181003_v0.1.pdf</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">0646781d-fd83-43d7-bcd1-2bbd1b8b04cd              </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_2018_NTU_CoPaCE_CR0243_20181003_v0.1.pdf</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arun                                                                                                </t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bijjala                                                                                             </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EES] NANYANG
+  </si>
+  <si>
+    <t>TeBS_2018_NTU_CoPaCE_CR0243_20181003_v0.1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0646781d-fd83-43d7-bcd1-2bbd1b8b04cd              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/TeBS_2018_NTU_CoPaCE_CR0243_20181003_v0.1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EES] NANYANG
 TeBS TECHNOLOGICAL
 «OS UNIVERSITY
 solutions for utre needs &lt;2” SINGAPORE
@@ -3521,51 +2711,18 @@
 © Copy right and all rights reserved. No part of this document may be reproduced, stored, or transmitted in any form or by any means,
 without the prior permission of the company.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SubsiteOrSiteCollection_SPTechCon_Oct2010.pdf</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">53c3ace0-0327-4814-96b7-535fb9dfe206              </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/SubsiteOrSiteCollection_SPTechCon_Oct2010.pdf</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rajesh                                                                                              </t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rajesh                                                                                              </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">| A a ee oe Le eS
+  </si>
+  <si>
+    <t>SubsiteOrSiteCollection_SPTechCon_Oct2010.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53c3ace0-0327-4814-96b7-535fb9dfe206              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/SubsiteOrSiteCollection_SPTechCon_Oct2010.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| A a ee oe Le eS
 Consulting, LLC
 Gary Lapointe, MVP
 Sub-Site or Site
@@ -3898,51 +3055,18 @@
 Thank You!!!
 Questions?
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>SP_RequirementSpecifications.pdf</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5f09ebc8-b552-47f7-984b-21f83fbe404a              </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/SP_RequirementSpecifications.pdf</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:55.000</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amit                                                                                                </t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Karan                                                                                               </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SINGAPORE POLYTECHNIC
+  </si>
+  <si>
+    <t>SP_RequirementSpecifications.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5f09ebc8-b552-47f7-984b-21f83fbe404a              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/SP_RequirementSpecifications.pdf</t>
+  </si>
+  <si>
+    <t>SINGAPORE POLYTECHNIC
 DEPARTMENT OF INFORMATION AND DIGITAL TECHNOLOGY
 SERVICES
 Implementation of Enterprise Content Management
@@ -4505,51 +3629,24 @@
 14.11. Friendly URLs must be setup for all sites and displayed from the landing page.
 14.12. The design shall make use of SAN, NAS and RBS (Blob store) for storage. The
 tenderer shall propose the details of</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NTU_PACE_CETCRM Fees Calculation User Manual_V0.1.pdf</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">9e0b6ac7-f301-44b8-9436-5c4d5d5b9573              </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/NTU_PACE_CETCRM Fees Calculation User Manual_V0.1.pdf</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:56.000</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:56.000</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arun                                                                                                </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kumar                                                                                               </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NANYANG
+  </si>
+  <si>
+    <t>NTU_PACE_CETCRM Fees Calculation User Manual_V0.1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9e0b6ac7-f301-44b8-9436-5c4d5d5b9573              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/NTU_PACE_CETCRM Fees Calculation User Manual_V0.1.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:56.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumar                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NANYANG
 TECHNOLOGICAL TeBS
 UNIVERSITY
 CETCRM FEES, FUNDING &amp;
@@ -5029,51 +4126,18 @@
 approved for the participant’s fee payment.
 Page 17 of 17
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>NintexWorkflow2013Helpfile.pdf</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">fc7c522c-36e5-4099-b807-2b722db47512              </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/NintexWorkflow2013Helpfile.pdf</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:56.000</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:56.000</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arun                                                                                                </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>oe .. ;
+  </si>
+  <si>
+    <t>NintexWorkflow2013Helpfile.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc7c522c-36e5-4099-b807-2b722db47512              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/NintexWorkflow2013Helpfile.pdf</t>
+  </si>
+  <si>
+    <t>oe .. ;
 © Nintex’ Workflow
 x
 Nintex Workflow 2013 Help
@@ -5856,51 +4920,21 @@
 Workflow will record the change as a task delegation and the new assignee will receive
 the Response Required Notification. If this option is not selected, Nintex Workflow will
 not track the change to the assignee and Nintex Workflo</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Harvard_3.pdf</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7f55998e-7a61-4f66-b012-9599db3d6480              </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Harvard_3.pdf</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rajesh                                                                                              </t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Established originally by the Massachusetts legislature and soon thereafter named for John
+  </si>
+  <si>
+    <t>Harvard_3.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7f55998e-7a61-4f66-b012-9599db3d6480              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Harvard_3.pdf</t>
+  </si>
+  <si>
+    <t>2023-01-25 06:40:57.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Established originally by the Massachusetts legislature and soon thereafter named for John
 Harvard (its first benefactor), Harvard is the United States' oldest institution of higher learning, and
 the Harvard Corporation (formally, the President and Fellows of Harvard College) is its first
 chartered corporation. Although never formally affiliated with any denomination, the early College
@@ -5913,51 +4947,18 @@
 Depression and World War II and began to reform the curriculum and liberalize admissions after the
 war. The undergraduate college became coeducational after its 1977 merger with Radcliffe College.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Granular_Backup_and_Restore_User_Guide.pdf</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cda77c24-ed41-400d-85aa-385ba97d58a5              </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Granular_Backup_and_Restore_User_Guide.pdf</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>AavePoint*
+  </si>
+  <si>
+    <t>Granular_Backup_and_Restore_User_Guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cda77c24-ed41-400d-85aa-385ba97d58a5              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Granular_Backup_and_Restore_User_Guide.pdf</t>
+  </si>
+  <si>
+    <t>AavePoint*
 Gy DOCAVE'6 User Guide
 DocAve’ 6 Granular Backup
 and Restore
@@ -6425,51 +5426,18 @@
 automatic failover that causes another Media service in the storage policy to take over
 the role of the Media service that is down during the backup job.
 For more information on working with storage policies, refer to t</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Documentum Exporter Guide.pdf</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">caed5de4-cf95-4bdf-b714-d104d6869d0f              </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>http://msfdemo.isearch.com:18605/Demo MSF/Documentum Exporter Guide.pdf</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2023-01-25 06:40:57.000</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guru                                                                                                </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Govind                                                                                              </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tzuna
+  </si>
+  <si>
+    <t>Documentum Exporter Guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caed5de4-cf95-4bdf-b714-d104d6869d0f              </t>
+  </si>
+  <si>
+    <t>http://msfdemo.isearch.com:18605/Demo MSF/Documentum Exporter Guide.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tzuna
 Migration Masters
 Tzunami Deployer
 Documentum Exporter Guide
@@ -6970,7 +5938,1010 @@
 wna SSCS
 Migration Masters
 </t>
-        </is>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
